--- a/数据整理/stocks/A股/创业板/300759-康龙化成.xlsx
+++ b/数据整理/stocks/A股/创业板/300759-康龙化成.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -7364,7 +7365,6 @@
           <t>国融融泰灵活配置混合C</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr"/>
       <c r="E113" t="inlineStr">
         <is>
           <t>69.53</t>
@@ -7396,7 +7396,6 @@
           <t>汇添富医药保健混合O</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr"/>
       <c r="E114" t="inlineStr">
         <is>
           <t>88.20</t>
@@ -7428,7 +7427,6 @@
           <t>诺德新生活混合C</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr"/>
       <c r="E115" t="inlineStr">
         <is>
           <t>91.37</t>
@@ -7460,7 +7458,6 @@
           <t>鑫元鑫新收益灵活配置混合C</t>
         </is>
       </c>
-      <c r="D116" t="inlineStr"/>
       <c r="E116" t="inlineStr">
         <is>
           <t>73.69</t>
@@ -7476,6 +7473,7162 @@
       </c>
       <c r="H116" t="n">
         <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H188"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>003095</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>504.98</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>32.4702</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>003096</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>242.38</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>15.5850</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006113</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富创新医药主题混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>107.00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.25</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>8.0892</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010608</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华泰柏瑞质量领先混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>71.68</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.90</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.79</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>7.0175</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004851</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发医疗保健股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>140.40</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>5.9249</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006228</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧医疗创新股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>5.7962</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>470006</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富医药保健混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>71.13</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>5.6548</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001717</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>工银瑞信前沿医疗股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>125.42</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.95</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>5.2049</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009664</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富医疗积极成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>81.83</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.72</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>5.0489</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>900011</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中信证券红利价值一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>190.68</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.19</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>4.9577</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>161726</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商国证生物医药指数</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>116.60</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>4.4075</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005176</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国精准医疗灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>44.34</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9.45</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>4.1901</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010595</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>101.92</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>3.9035</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>900099</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中信证券红利价值一年持有混合B</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>135.54</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.19</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>3.5240</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>050026</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>博时医疗保健行业混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>60.05</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.67</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>3.4649</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>008065</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>汇添富中盘积极成长混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>66.64</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>3.2987</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>206009</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鹏华新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>76.14</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>3.2740</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>001417</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>汇添富医疗服务灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>53.16</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>3.1045</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>000913</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>农银医疗保健主题股票</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>30.62</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>2.6058</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>004075</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>交银施罗德医药创新股票</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>35.17</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>89.89</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>2.5744</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>512170</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华宝中证医疗ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>57.03</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>98.45</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>2.3896</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>003940</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>银华盛世精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>70.25</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.92</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>2.2550</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>000831</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>工银瑞信医疗保健行业股票</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>47.01</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>87.54</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.9509</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>006229</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>中欧医疗创新股票C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>27.69</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1.7002</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>006002</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>工银瑞信医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>30.57</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>88.63</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1.6783</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009861</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>鹏华新兴成长混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>43.34</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>89.36</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>1.6686</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>000220</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>富国医疗保健行业混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>19.49</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>1.5787</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>002408</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中信建投医改灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>32.92</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>1.5769</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>460005</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华泰柏瑞价值增长混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>17.73</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>8.61</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>1.5266</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001171</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>工银瑞信养老产业股票</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>28.78</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>85.39</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>1.3009</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>000945</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华夏医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>22.10</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>91.37</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>1.2906</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>900089</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>中信证券红利价值一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>49.55</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>88.19</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>1.2883</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>001766</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>上投摩根医疗健康股票</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>13.65</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>80.46</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>9.08</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>1.2394</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>000001</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华夏成长混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>44.29</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>76.42</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>1.2003</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>005805</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华泰柏瑞医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>13.88</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>1.1382</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>008293</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>农银汇理创新医疗混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>13.36</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>8.03</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>1.0728</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>000780</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>鹏华医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>11.51</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>86.37</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>9.28</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>1.0681</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>159992</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>银华中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>30.47</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>97.19</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>1.0390</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>399011</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中海医疗保健主题股票</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>14.75</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>88.06</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.9720</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>001230</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>鹏华医药科技股票</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>21.98</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.9363</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>010393</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>工银瑞信健康生活混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>21.40</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.9138</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>008528</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华泰柏瑞质量成长混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>11.43</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>89.07</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>7.36</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.8412</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>006218</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>富国生物医药科技混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>13.69</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.8214</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>501005</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>汇添富中证精准医疗主题指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>14.11</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.8184</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>002708</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>大摩健康产业混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>9.90</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.7999</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>501009</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>汇添富中证生物科技主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>20.66</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.7355</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>009468</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>博时健康成长主题双周定期可赎回混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>12.28</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>88.37</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.7221</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>004905</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华泰柏瑞生物医药灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>8.65</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.7093</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>007553</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>中信建投医改灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>13.76</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.6591</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>001915</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>宝盈医疗健康沪港深股票</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>6.75</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>9.61</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.6487</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>050008</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>博时第三产业成长混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>15.03</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>89.29</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.6268</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>010609</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>华泰柏瑞质量领先混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>86.90</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>9.79</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.6138</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>010654</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>天弘医药创新混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>8.73</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.5491</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>009665</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>汇添富医疗积极成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>86.72</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.5343</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>159837</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>易方达中证生物科技主题ETF</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>14.80</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>98.61</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.5047</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>161122</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>易方达中证万得生物科技指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>10.12</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.4756</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>100029</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>富国天成红利混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>11.44</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>79.12</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.4633</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>001815</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>华泰柏瑞激励动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>10.89</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.4345</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>010109</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>富国价值增长混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>26.80</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.4261</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>008066</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>汇添富中盘积极成长混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>8.48</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.4198</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>009163</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>广发医疗保健股票C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>9.94</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.4195</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>011598</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>信达澳银医药健康混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.3735</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>010685</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>工银瑞信前沿医疗股票C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>8.88</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>88.95</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.3685</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>006003</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>工银瑞信医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>88.63</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.3673</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>001069</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>华泰柏瑞消费成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>5.35</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>85.07</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.3670</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>009162</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>富国医药成长30股票</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>93.86</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.3604</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>501010</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>汇添富中证生物科技主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>9.87</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.3514</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>010090</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>中信建投医药健康混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.3483</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>233007</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>大摩卓越成长混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>91.28</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.3465</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>010731</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>广发创新医疗两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.3180</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>010415</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>华泰柏瑞质量精选混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>75.63</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.3162</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>240020</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>华宝医药生物优选混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>91.15</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.3058</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>011826</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>汇添富健康生活一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>17.75</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>54.25</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.3053</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>515120</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>广发中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>98.87</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.2800</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>008359</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>华安医疗创新混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>88.97</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.2730</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>163001</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>长信医疗保健行业灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.2643</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>008138</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>富国龙头优势混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>93.95</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.2599</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>501006</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>汇添富中证精准医疗主题指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.2442</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>011040</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>天弘国证生物医药指数A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>95.73</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.2432</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>001048</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>富国新兴产业股票</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>12.67</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.2395</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>000946</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>华夏医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>91.37</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>5.84</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.2365</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>009364</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>工银瑞信科技创新6个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>96.26</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.2167</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>519993</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>长信增利动态策略混合</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>88.80</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.2117</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>502056</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>广发中证医疗指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.2108</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>010596</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>广发成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.2045</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>161035</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>富国中证医药主题指数增强型（LOF）</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.2032</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>010655</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>天弘医药创新混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.1994</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>011041</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>天弘国证生物医药指数C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>95.73</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.1965</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>460007</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业领先混合</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.1953</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>519171</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>浦银安盛医疗健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>7.65</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.1943</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>000523</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>国投瑞银医疗保健行业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.1826</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>159828</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>国泰中证医疗ETF</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>97.58</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.1762</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>004683</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>建信高端医疗股票</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>92.04</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.1421</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>003032</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>平安医疗健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>90.03</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.1419</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>011011</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>融通产业趋势精选2年封闭运作混合</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>88.10</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.1382</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>002919</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>东吴智慧医疗量化策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.1382</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>010394</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>工银瑞信健康生活混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.1247</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>008412</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>长盛竞争优势股票A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.1231</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>001550</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>天弘中证医药100指数型发起式 A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>10.85</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>95.41</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.1226</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>240017</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>华宝新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.1198</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>000684</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>长盛养老健康产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.1178</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>007146</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>鹏华研究智选混合</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>80.27</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.1170</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>233001</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>大摩基础行业混合</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>79.57</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.1117</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>009469</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>博时健康成长主题双周定期可赎回混合C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>88.37</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.1111</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>010091</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>中信建投医药健康混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>94.89</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.1097</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>159839</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>汇添富国证生物医药ETF</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>99.60</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.1040</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>002300</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>长盛医疗行业量化配置股票</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.1002</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>002082</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>华泰柏瑞激励动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.1001</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>001398</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>华泰柏瑞健康生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0950</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>516080</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>易方达中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>97.34</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0933</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>006981</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>中金新医药股票A</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>90.53</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0918</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>008526</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业精选混合A</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0798</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>011827</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>汇添富健康生活一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>54.25</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0781</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>009981</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>万家创业板指数增强A</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0748</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>000755</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>富安达新兴成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0737</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>001551</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>天弘中证医药100指数型发起式 C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>95.41</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0712</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>010732</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>广发创新医疗两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>93.56</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0668</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>008997</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>同泰竞争优势混合A</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0651</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>009380</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>富安达科技领航混合</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0650</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>009893</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫优悦安和混合</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0599</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>006881</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>华宝大健康混合</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0588</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>011453</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>华泰柏瑞医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0533</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>001209</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>前海开源一带一路主题精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0530</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>010176</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>中加新兴消费混合A</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0522</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>515950</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>富国中证医药50ETF</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>98.70</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0516</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>233015</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫量化配置混合A</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0470</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>164401</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>前海开源中证健康产业指数</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>94.68</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0450</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>009862</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>鹏华新兴成长混合C</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>89.36</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0447</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>005075</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>富国研究量化精选混合</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>2.64</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0441</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>003284</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>中邮医药健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>80.46</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0434</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>005293</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>诺德新旺灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>6.55</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0426</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>009881</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>广发中证医疗指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0415</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>005520</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>国投瑞银创新医疗灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0412</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>008998</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>同泰竞争优势混合C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>4.86</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0408</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>516060</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>工银瑞信中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>97.62</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0406</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>006887</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>诺德新生活混合A</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0384</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>009365</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>工银瑞信科技创新6个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>96.26</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0361</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>010031</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>华泰柏瑞生物医药灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>8.65</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>011151</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>富国医疗保健行业混合C</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>007678</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>泰达宏利品牌升级混合A</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>82.01</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>007481</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>华夏逸享健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>48.09</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>2.04</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0275</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>162214</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>泰达宏利领先中小盘混合</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>85.31</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>000059</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>国联安中证医药100指数A</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>620002</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>金元顺安成长动力混合</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>79.25</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0267</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>006227</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>华宝科技先锋混合A</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>011002</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>同泰大健康主题混合A</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>83.16</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>005237</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>银华医疗健康量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>159835</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>建信中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>95.27</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>159858</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>南方中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>99.43</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>008413</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>长盛竞争优势股票C</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>002495</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>前海开源量化优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>519987</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>长信恒利优势混合</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>009982</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>万家创业板指数增强C</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>007005</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>中金新医药股票C</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>90.53</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>011308</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>富国生物医药科技混合C</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>011003</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>同泰大健康主题混合C</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>83.16</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0165</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>008527</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业精选混合C</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>002496</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>前海开源量化优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0143</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>010572</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>易方达中证万得生物科技指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>004361</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>上投摩根安通回报混合A</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>29.45</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>010177</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>中加新兴消费混合C</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>620004</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>金元顺安价值增长混合</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>93.44</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>003333</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>泰信智选成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>90.64</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>007439</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>东海科技动力混合A</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>004805</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>长信消费精选行业量化股票</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>005238</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>银华医疗健康量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>011895</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>博时医疗保健行业混合C</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>89.67</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>010416</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>华泰柏瑞质量精选混合C</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>75.63</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>001282</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>华安新机遇灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>28.47</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>010037</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>华泰柏瑞价值增长混合C</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>8.61</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>007463</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>东海科技动力混合C</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>007875</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>国融融兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>79.63</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>002080</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>前海开源一带一路主题精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>92.58</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>007808</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>北信瑞丰量化优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>79.34</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>004362</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>上投摩根安通回报混合C</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>29.45</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>006601</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>国融融泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>79.63</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>007876</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>国融融兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>79.63</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>010842</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>华宝科技先锋混合C</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H179" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>006569</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>国联安中证医药100指数C</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H180" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>007679</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>泰达宏利品牌升级混合C</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>82.01</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>001947</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>上投摩根安鑫回报混合A</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>23.16</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H182" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>159951</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>嘉实中关村A股ETF</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>97.74</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H183" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>008305</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫量化配置混合C</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H184" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>002845</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>上投摩根安鑫回报混合C</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>23.16</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H185" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>960015</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>汇添富医药保健混合O</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>7.95</t>
+        </is>
+      </c>
+      <c r="G186" t="n">
+        <v>0</v>
+      </c>
+      <c r="H186" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>006888</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>诺德新生活混合C</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>92.60</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G187" t="n">
+        <v>0</v>
+      </c>
+      <c r="H187" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>006602</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>国融融泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>79.63</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G188" t="n">
+        <v>0</v>
+      </c>
+      <c r="H188" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/创业板/300759-康龙化成.xlsx
+++ b/数据整理/stocks/A股/创业板/300759-康龙化成.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -14634,4 +14635,7922 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H208"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>003095</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>634.40</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>51.7036</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>003096</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>321.72</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.15</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>26.2202</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>004851</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发医疗保健股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>141.89</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>9.3222</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006113</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富创新医药主题混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>108.15</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.92</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>8.1761</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006228</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧医疗创新股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>116.18</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.72</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>7.7608</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010595</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>78.79</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>86.76</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>6.4608</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001717</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银瑞信前沿医疗股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>175.95</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>86.69</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>5.9295</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>161726</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商国证生物医药指数</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>116.43</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>5.0181</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>512170</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华宝中证医疗ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>96.60</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>98.89</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>4.9556</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>470006</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇添富医药保健混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>63.79</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.66</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>4.8544</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>270005</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发聚丰混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>56.56</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.25</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>4.6323</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005176</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>富国精准医疗灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>45.77</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.26</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>3.7806</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>001417</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇添富医疗服务灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>49.24</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>3.1218</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>050026</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>博时医疗保健行业混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>52.59</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>82.98</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>3.1186</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>009664</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇添富医疗积极成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>56.39</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>74.41</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>3.0056</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>004075</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>交银施罗德医药创新股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>35.87</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2.8050</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006229</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中欧医疗创新股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>37.01</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>87.72</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2.4723</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000913</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>农银医疗保健主题股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>29.05</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.57</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>8.32</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>2.4170</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>008065</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>汇添富中盘积极成长混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>58.21</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>78.33</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>2.3575</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010110</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>广发医药健康混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>38.74</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>2.1966</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011425</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>广发优势成长股票A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>23.66</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>2.0040</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>270050</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>广发新经济混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>22.14</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.9395</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006002</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>工银瑞信医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>33.25</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>88.98</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.6692</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005453</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>前海开源医疗健康灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>25.69</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1.5517</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>000220</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>富国医疗保健行业混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>18.77</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1.5448</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>000945</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华夏医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>21.24</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>87.84</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>1.4677</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010592</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>南方医药创新股票A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>31.32</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>84.23</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>1.3374</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>002408</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中信建投医改灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>32.50</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>1.3358</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>000001</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华夏成长混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>38.83</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>70.60</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>1.2620</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>501009</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>汇添富中证生物科技主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>29.36</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>1.1861</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>159992</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>银华中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>30.78</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>98.51</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>1.1573</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009163</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>广发医疗保健股票C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>17.05</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>1.1202</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>008293</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>农银汇理创新医疗混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>13.15</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>89.47</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>8.22</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>1.0809</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>000780</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>鹏华医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>10.50</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>80.32</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>10.09</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>1.0594</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>590001</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中邮核心优选混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>20.20</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>1.0342</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>002446</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>广发利鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>21.25</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>68.79</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>1.0009</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>009618</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>交银施罗德启汇混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>29.32</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>75.32</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.9998</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>005543</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>银华心诚灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>28.52</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.9126</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>009994</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>嘉实创新先锋混合A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>16.98</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.9101</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010393</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>工银瑞信健康生活混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>22.55</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>89.65</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.8930</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>006218</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>富国生物医药科技混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>10.96</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.8867</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>011826</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>汇添富健康生活一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>17.32</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>63.82</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.8851</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>005303</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>嘉实医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>16.58</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.8522</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>399011</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>中海医疗保健主题股票</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>14.53</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>80.31</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.8471</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>000711</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>嘉实医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>13.91</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.7887</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>501005</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>汇添富中证精准医疗主题指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>14.55</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.7508</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>005454</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>前海开源医疗健康灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>11.77</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.7109</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010685</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>工银瑞信前沿医疗股票C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>20.79</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>86.69</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.7006</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>010111</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>广发医药健康混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>12.34</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.6997</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>005805</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华泰柏瑞医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>9.54</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.6773</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>007750</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>广发优势增长股票</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>93.50</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>9.88</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.6462</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>007553</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>中信建投医改灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>15.41</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>94.96</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.6334</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>009468</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>博时健康成长主题双周定期可赎回混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>9.25</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>89.11</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.6281</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>050008</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>博时第三产业成长混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>12.83</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.6210</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>008359</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>华安医疗创新混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>90.92</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.6111</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>159837</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>易方达中证生物科技主题ETF</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>14.75</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>98.58</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.5841</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>004905</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>华泰柏瑞生物医药灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>8.41</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.5837</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>011498</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>富国沪深300基本面精选股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>16.15</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.5814</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>001915</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>宝盈医疗健康沪港深股票</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.5511</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>161122</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>易方达中证万得生物科技指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>9.96</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.5368</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>160727</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>嘉实创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>11.24</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>64.77</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.5215</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>001815</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>华泰柏瑞激励动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>13.99</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.5176</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>010731</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>广发创新医疗两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>8.63</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.5169</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>004040</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>金鹰医疗健康产业股票A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>8.90</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.4877</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>001766</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>上投摩根医疗健康股票</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>14.77</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>82.49</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.4845</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>501010</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>汇添富中证生物科技主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>11.59</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>94.61</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.4682</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>502056</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>广发中证医疗指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>9.75</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.4680</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>011466</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>兴业医疗保健混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>90.07</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.4640</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>515120</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>广发中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>11.98</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>99.21</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.4600</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>516820</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>平安中证医药及医疗器械创新交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>8.98</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>99.17</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.4463</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>590005</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>中邮核心主题混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>8.30</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.4266</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>519171</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>浦银安盛医疗健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>9.51</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.3985</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>010593</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>南方医药创新股票C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>9.24</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>84.23</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.3945</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>006003</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>工银瑞信医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>7.70</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>88.98</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.3865</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>012086</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>博时健康生活混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>69.48</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.3771</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>159828</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>国泰中证医疗ETF</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>99.22</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.3695</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>009162</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>富国医药成长30股票</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>6.54</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.3590</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>010654</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>天弘医药创新混合A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>89.35</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.3462</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>010400</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>富国融泰三个月定期开放混合</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>13.02</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>93.70</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.3450</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>100029</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>富国天成红利混合</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>11.40</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>77.05</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.3443</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>010624</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>富国稳健增长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>11.93</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>89.20</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.3424</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>010090</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>中信建投医药健康混合A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>7.23</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.3362</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>010596</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>广发成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>86.76</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.3362</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>009665</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>汇添富医疗积极成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>74.41</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.3331</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>011426</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>广发优势成长股票C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>88.86</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>8.47</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.3312</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>002264</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>华夏乐享健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>68.70</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.3119</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>004674</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>富国新机遇灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>9.38</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.3114</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>011040</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>天弘国证生物医药指数A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.3002</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>240020</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>华宝医药生物优选混合</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>89.62</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.2980</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>630010</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>华商价值精选混合</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>86.61</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.2942</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>004041</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>金鹰医疗健康产业股票C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.2828</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>005689</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>中银医疗保健灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>12.40</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>81.94</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.2790</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>008066</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>汇添富中盘积极成长混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>78.33</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.2714</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>003291</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>信达澳银健康中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>5.75</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.2685</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>011041</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>天弘国证生物医药指数C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.2575</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>000946</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>华夏医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>87.84</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.2571</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>010394</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>工银瑞信健康生活混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>89.65</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.2265</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>011827</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>汇添富健康生活一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>63.82</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.2248</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>000523</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>国投瑞银医疗保健行业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.2182</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>163001</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>长信医疗保健行业灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.2127</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>501006</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>汇添富中证精准医疗主题指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.2090</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>011598</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>信达澳银医药健康混合</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>94.41</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.2088</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>001069</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>华泰柏瑞消费成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>94.57</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.2023</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>010296</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>万家互联互通中国优势量化策略混合A</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>8.55</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.2009</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>161035</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>富国中证医药主题指数增强型（LOF）</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.1904</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>006981</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>中金新医药股票A</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>87.83</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.1885</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>002300</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>长盛医疗行业量化配置股票</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>92.74</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>7.60</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.1763</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>011467</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>兴业医疗保健混合C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>90.07</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.1758</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>000974</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>安信消费医药主题股票</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.1755</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>009995</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>嘉实创新先锋混合C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.1613</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>001550</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>天弘中证医药100指数型发起式 A</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>11.68</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.1495</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>000684</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>长盛养老健康产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>7.33</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.1481</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>005304</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>嘉实医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.1383</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>011601</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>前海开源公共卫生主题精选股票A</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.1330</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>005549</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>富国成长优选三年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>93.23</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.1323</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>009881</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>广发中证医疗指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.1315</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>010655</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>天弘医药创新混合C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>89.35</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.1306</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>159839</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>汇添富国证生物医药ETF</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>99.44</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>4.55</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.1242</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>010091</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>中信建投医药健康混合C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>94.78</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.1223</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>008412</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>长盛竞争优势股票A</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.1212</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>519673</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>银河康乐股票</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>92.13</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>4.34</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.1185</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>004683</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>建信高端医疗股票</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.1175</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>001193</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>中金消费升级股票</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>89.37</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.1127</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>010732</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>广发创新医疗两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.1114</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>011453</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>华泰柏瑞医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.1100</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>516080</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>易方达中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>98.13</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.1054</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>009469</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>博时健康成长主题双周定期可赎回混合C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>89.11</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.1039</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>009414</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>中银大健康股票A</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>84.47</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.1012</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>159847</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>易方达中证医疗交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>1.94</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>98.69</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0982</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>002082</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>华泰柏瑞激励动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0940</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>005112</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>银华中证全指医药卫生指数增强</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0929</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>001551</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>天弘中证医药100指数型发起式 C</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>94.66</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0918</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>011471</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>鹏华致远成长混合A</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>63.57</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0846</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>005650</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>万家量化同顺多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0839</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>519959</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>长信多利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>84.87</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0817</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>013488</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>长信多利灵活配置混合D</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>84.87</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0817</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>515950</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>富国中证医药50ETF</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>99.05</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0796</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>009415</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>中邮瑞享两年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>21.91</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0753</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>009981</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>万家创业板指数增强A</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0676</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>159859</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>天弘国证生物医药交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>99.28</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0667</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>012087</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>博时健康生活混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>69.48</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>6.97</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0648</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>010134</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>广发新经济混合C</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0613</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>630006</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>华商产业升级混合</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>85.55</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0553</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>011499</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>富国沪深300基本面精选股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0551</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>006881</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>华宝大健康混合</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>90.30</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0538</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>004675</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>富国新机遇灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>92.70</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0528</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>011151</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>富国医疗保健行业混合C</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0527</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>007481</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>华夏逸享健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>65.41</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0497</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>159849</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>招商中证生物科技主题ETF</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>97.69</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0490</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>011308</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>富国生物医药科技混合C</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0477</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>233015</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫量化配置混合A</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0456</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>512120</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>华安中证细分医药ETF</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>98.27</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0455</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>005520</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>国投瑞银创新医疗灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>92.27</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0433</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>003284</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>中邮医药健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>84.44</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0429</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>350009</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>天治研究驱动混合A</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0425</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>159838</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>博时中证医药50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>98.68</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0420</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>005293</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>诺德新旺灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0419</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>010625</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>富国稳健增长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>89.20</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0393</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>011602</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>前海开源公共卫生主题精选股票C</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0389</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>519025</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>海富通领先成长混合</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>93.07</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0388</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>516060</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>工银瑞信中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>98.02</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0383</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>006877</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>天治量化核心精选混合A</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>82.49</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0325</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>007005</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>中金新医药股票C</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>87.83</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0321</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>011002</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>同泰大健康主题混合A</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0320</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>159858</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>南方中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>99.54</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0317</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>008413</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>长盛竞争优势股票C</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>7.48</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>360010</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>光大保德信均衡精选混合</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>88.42</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>6.57</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>000059</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>国联安中证医药100指数A</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>010690</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>万家互联互通核心资产量化策略混合A</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>90.02</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0.0253</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>005237</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>银华医疗健康量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>90.03</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>003513</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>中邮消费升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>92.40</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>0.0229</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>162214</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>泰达宏利领先中小盘混合</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>011003</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>同泰大健康主题混合C</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>159835</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>建信中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>97.08</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>009128</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>明亚价值长青混合A</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>63.81</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>0.0214</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>010031</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>华泰柏瑞生物医药灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>0.0194</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>519987</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>长信恒利优势混合</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>010572</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>易方达中证万得生物科技指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H179" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>010297</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>万家互联互通中国优势量化策略混合C</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>0.0181</t>
+        </is>
+      </c>
+      <c r="H180" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>009982</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>万家创业板指数增强C</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>007613</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>嘉合医疗健康混合</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>85.51</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>0.0175</t>
+        </is>
+      </c>
+      <c r="H182" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>011389</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>国都聚成混合</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>50.64</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>0.0173</t>
+        </is>
+      </c>
+      <c r="H183" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>007678</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>泰达宏利品牌升级混合A</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>0.0167</t>
+        </is>
+      </c>
+      <c r="H184" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>011895</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>博时医疗保健行业混合C</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>82.98</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>5.93</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H185" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>011172</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>广发利鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>68.79</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H186" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>010025</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>广发聚丰混合C</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>87.25</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H187" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>003333</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>泰信智选成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>94.24</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H188" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>005651</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>万家量化同顺多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H189" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>002043</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>天治研究驱动混合C</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H190" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>004320</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>前海开源沪港深乐享生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>66.16</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H191" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>004211</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>金鹰周期优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H192" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>008884</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>博远博锐混合A</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>78.85</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H193" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>005238</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>银华医疗健康量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>90.03</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H194" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>006878</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>天治量化核心精选混合C</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>82.49</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>6.91</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H195" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>010159</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>中银医疗保健灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>81.94</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H196" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>010691</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>万家互联互通核心资产量化策略混合C</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>90.02</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H197" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>004805</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>长信消费精选行业量化股票</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>0.0063</t>
+        </is>
+      </c>
+      <c r="H198" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>009416</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>中邮瑞享两年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>21.91</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H199" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>011472</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>鹏华致远成长混合C</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>63.57</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H200" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>010321</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>中银大健康股票C</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>84.47</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H201" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>007084</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>天治转型升级混合</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H202" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>009129</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>明亚价值长青混合C</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>63.81</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H203" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>006569</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>国联安中证医药100指数C</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H204" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>008885</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>博远博锐混合C</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>78.85</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H205" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>007679</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>泰达宏利品牌升级混合C</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H206" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>960015</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>汇添富医药保健混合O</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>90.66</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="G207" t="n">
+        <v>0</v>
+      </c>
+      <c r="H207" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>008305</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫量化配置混合C</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G208" t="n">
+        <v>0</v>
+      </c>
+      <c r="H208" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300759-康龙化成.xlsx
+++ b/数据整理/stocks/A股/创业板/300759-康龙化成.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -22553,4 +22554,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>207</v>
+      </c>
+      <c r="D2" t="n">
+        <v>220.59</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>187</v>
+      </c>
+      <c r="D3" t="n">
+        <v>184.72</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>115</v>
+      </c>
+      <c r="D4" t="n">
+        <v>97.92</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>68</v>
+      </c>
+      <c r="D5" t="n">
+        <v>38.48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300759-康龙化成.xlsx
+++ b/数据整理/stocks/A股/创业板/300759-康龙化成.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -22562,7 +22563,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22573,17 +22574,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -22593,14 +22614,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>207</v>
-      </c>
-      <c r="D2" t="n">
-        <v>220.59</v>
+          <t>003096</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>434.53</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.90</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>25.6373</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -22609,14 +22652,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>187</v>
-      </c>
-      <c r="D3" t="n">
-        <v>184.72</v>
+          <t>004851</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发医疗保健股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>136.92</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.7502</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -22625,14 +22690,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>115</v>
-      </c>
-      <c r="D4" t="n">
-        <v>97.92</v>
+          <t>006228</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧医疗创新股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>130.94</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.92</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>6.4815</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -22641,13 +22728,3191 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>010595</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>72.48</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>5.6534</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>270005</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发聚丰混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>54.49</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>4.2393</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>512170</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华宝中证医疗ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>140.64</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.67</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>4.0082</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005176</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国精准医疗灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>38.11</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.52</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.8659</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006229</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧医疗创新股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>48.92</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>90.92</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.4215</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010110</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发医药健康混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>55.60</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>2.1962</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009468</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>博时健康成长主题双周定期可赎回混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>38.53</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>82.07</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.0536</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>011425</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发优势成长股票A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>21.07</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.8373</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>270050</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发新经济混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>19.16</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.6957</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009994</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>嘉实创新先锋混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>39.10</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.6266</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000913</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>农银医疗保健主题股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>26.36</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.5605</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>159992</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>银华中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>39.53</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>98.49</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.0634</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009163</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发医疗保健股票C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>20.14</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.9929</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000220</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>富国医疗保健行业混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>17.47</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.9591</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008412</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>长盛竞争优势股票A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>12.38</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>88.50</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.8728</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006218</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富国生物医药科技混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>10.96</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.6795</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008293</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>农银汇理创新医疗混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>11.87</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.6528</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>000001</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华夏成长混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>36.86</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>67.78</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.6450</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>004075</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>交银施罗德医药创新股票</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>13.45</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>88.18</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.6227</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005303</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>嘉实医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>15.72</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.6131</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>519171</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>浦银安盛医疗健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>17.55</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.15</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.5704</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010111</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>广发医药健康混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>14.20</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.5609</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011826</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>汇添富健康生活一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>14.23</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.5564</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>502056</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>广发中证医疗指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>19.31</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.5291</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>000711</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>嘉实医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>13.07</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.48</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.5176</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>007750</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>广发优势增长股票</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>8.54</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.4945</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>000945</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华夏医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>17.57</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.4937</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010405</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>惠升医药健康6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>14.82</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>76.19</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.4920</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>159828</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>国泰中证医疗ETF</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>13.90</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>99.39</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.4629</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>515120</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>广发中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>15.05</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>99.29</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.4154</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>161122</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>易方达中证万得生物科技指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>11.65</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.3646</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>516820</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>平安中证医药及医疗器械创新交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>11.34</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>99.05</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.3583</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>160727</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>嘉实创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>10.97</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>67.63</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.3423</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>003291</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>信达澳银健康中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.3368</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>007718</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中银创新医疗混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>14.43</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>87.28</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.3333</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>001766</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>上投摩根医疗健康股票</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>13.77</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>82.58</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.3332</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>011426</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>广发优势成长股票C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.3017</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>010731</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>广发创新医疗两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.2947</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>012086</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>博时健康生活混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>90.45</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.2945</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>010596</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>广发成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>91.60</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.2909</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>009162</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>富国医药成长30股票</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>90.20</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.2679</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>011598</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>信达澳银医药健康混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.02</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.2544</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>005805</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华泰柏瑞医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.2519</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>009881</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>广发中证医疗指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>8.92</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.2444</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>002264</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华夏乐享健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>7.82</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>72.96</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.2018</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>002300</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>长盛医疗行业量化配置股票</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>89.65</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1817</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>011827</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>汇添富健康生活一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1630</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>000974</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>安信消费医药主题股票</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>92.36</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1598</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>163001</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>长信医疗保健行业灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1395</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>000684</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>长盛养老健康产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>85.95</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1296</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>003095</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>中欧医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>83.90</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1233</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>005304</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>嘉实医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1096</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>000946</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>华夏医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1082</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>009995</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>嘉实创新先锋混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1040</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>006981</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>中金新医药股票A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>91.52</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0972</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>516080</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>易方达中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>98.36</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.68</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0809</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>009981</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>万家创业板指数增强A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0773</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>009469</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>博时健康成长主题双周定期可赎回混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>82.07</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0698</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>010732</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>广发创新医疗两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0644</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>011308</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>富国生物医药科技混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>93.01</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0626</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>159847</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>易方达中证医疗交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>98.89</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0620</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>010134</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>广发新经济混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>93.19</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0531</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>013441</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>西藏东财创新医疗六个月定开混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>90.11</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0472</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>011151</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>富国医疗保健行业混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0401</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>012087</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>博时健康生活混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>90.45</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0380</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>008413</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>长盛竞争优势股票C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>88.50</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0289</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>003284</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>中邮医药健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>80.23</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>516060</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>工银瑞信中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>98.48</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>159858</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>南方中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>99.67</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0241</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>010572</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>易方达中证万得生物科技指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>159835</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>建信中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>96.92</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>360010</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>光大保德信均衡精选混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>89.87</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>006346</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>安信量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>009502</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>国寿安保创新医药股票A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>87.66</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>006347</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>安信量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>007005</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>中金新医药股票C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>91.52</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>011453</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>华泰柏瑞医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>010025</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>广发聚丰混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>009982</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>万家创业板指数增强C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>009503</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>国寿安保创新医药股票C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>87.66</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>010500</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>中银创新医疗混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>87.28</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>84</v>
+      </c>
+      <c r="D2" t="n">
+        <v>87.87</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>207</v>
+      </c>
+      <c r="D3" t="n">
+        <v>220.59</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>187</v>
+      </c>
+      <c r="D4" t="n">
+        <v>184.72</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>115</v>
+      </c>
+      <c r="D5" t="n">
+        <v>97.92</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>68</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>38.48</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300759-康龙化成.xlsx
+++ b/数据整理/stocks/A股/创业板/300759-康龙化成.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -25811,7 +25812,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25822,17 +25823,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -25842,14 +25863,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>84</v>
-      </c>
-      <c r="D2" t="n">
-        <v>87.87</v>
+          <t>006228</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧医疗创新股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>113.78</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.5335</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -25858,14 +25901,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>207</v>
-      </c>
-      <c r="D3" t="n">
-        <v>220.59</v>
+          <t>010595</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>60.71</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.53</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.7172</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -25874,14 +25939,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>187</v>
-      </c>
-      <c r="D4" t="n">
-        <v>184.72</v>
+          <t>512170</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝中证医疗ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>130.22</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.76</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.8545</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -25890,14 +25977,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>115</v>
-      </c>
-      <c r="D5" t="n">
-        <v>97.92</v>
+          <t>270005</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发聚丰混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>44.87</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.22</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>3.5402</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -25906,13 +26015,4345 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>009714</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安聚优精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>70.24</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.3294</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006229</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧医疗创新股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>43.70</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.2775</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006113</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富创新医药主题混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>79.84</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3.2102</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005176</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>富国精准医疗灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>33.81</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.87</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.6608</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>470006</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富医药保健混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>49.54</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>88.92</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.8776</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004075</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>交银施罗德医药创新股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>31.60</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>83.63</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.8518</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>050026</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博时医疗保健行业混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>44.26</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.5048</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>270050</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>广发新经济混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>15.01</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.10</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>8.65</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.2984</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010110</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>广发医药健康混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>34.14</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.1608</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002708</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>大摩健康产业混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>13.96</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.77</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.00</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.1168</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011425</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>广发优势成长股票A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>16.88</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88.52</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.0618</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>000220</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富国医疗保健行业混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>14.96</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>89.09</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.9470</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>501005</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇添富中证精准医疗主题指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>17.30</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.8304</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000945</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华夏医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>14.81</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>88.44</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.8071</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>519700</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>交银主题优选混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>19.94</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>79.04</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.5204</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010405</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>惠升医药健康6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>12.18</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>64.63</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.5189</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>012284</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>光大保德信健康优加混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>14.49</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.4825</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>502056</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>广发中证医疗指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>17.38</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.4797</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>006218</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>富国生物医药科技混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>9.55</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>87.25</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.4660</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>159828</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>国泰中证医疗ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>13.16</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>99.03</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.4461</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010111</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>广发医药健康混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>12.88</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.71</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.4379</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010654</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>天弘医药创新混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>11.86</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>87.22</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.4198</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009994</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>嘉实创新先锋混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>11.99</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.4185</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>160727</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>嘉实创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>10.97</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>64.85</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.3894</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>002919</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>东吴智慧医疗量化策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.35</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.3260</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>161122</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>易方达中证万得生物科技指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>11.47</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.3108</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>008371</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华安汇智精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>8.71</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.73</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2996</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010314</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫内需增长混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>6.05</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2989</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>002264</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华夏乐享健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>83.94</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2965</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>001766</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>上投摩根医疗健康股票</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>10.35</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>80.54</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2846</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>233007</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>大摩卓越成长混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.50</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2837</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009162</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>富国医药成长30股票</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2834</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>871003</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>广发资管价值增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>7.58</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>81.31</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2820</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>160143</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>南方创业板2年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>84.71</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2774</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>006796</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>富国消费升级混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>81.75</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>8.62</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.2758</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>040016</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>华安行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>89.28</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.2739</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>003291</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>信达澳银健康中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.2559</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010596</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>广发成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>81.53</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>7.77</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.2463</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>501006</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>汇添富中证精准医疗主题指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.2429</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010731</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>广发创新医疗两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>6.56</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.2217</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>011598</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>信达澳银医药健康混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.2169</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>040020</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华安升级主题混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.2156</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>007750</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>广发优势增长股票</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>88.35</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.2155</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>009881</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>广发中证医疗指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>94.01</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.2153</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>010126</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>平安价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>88.45</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.2093</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>009507</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>国金鑫意医药消费混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>93.62</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>9.88</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1996</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>006100</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>平安优势产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>87.56</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1859</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>011078</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>诺德品质消费6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1756</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>011426</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>广发优势成长股票C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>88.52</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1755</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>000946</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>华夏医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>88.44</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1695</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>011828</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>平安睿享成长混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>87.23</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1628</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>000974</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>安信消费医药主题股票</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>85.10</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1595</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>004683</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>建信高端医疗股票</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>85.74</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1568</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>163001</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>长信医疗保健行业灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1401</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>008290</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>华安现代生活混合</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1314</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>010655</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>天弘医药创新混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>87.22</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1246</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>012086</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>博时健康生活混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1186</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>006101</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>平安优势产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>87.56</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1172</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>011895</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>博时医疗保健行业混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0983</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>007718</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>中银创新医疗混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0887</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>159847</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>易方达中证医疗交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>99.11</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0818</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>009893</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫优悦安和混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>8.89</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0809</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>009995</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>嘉实创新先锋混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>91.88</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0747</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>000684</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>长盛养老健康产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>89.64</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0745</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>011181</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>长盛成长龙头混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>87.01</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0735</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>010127</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>平安价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>88.45</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0626</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>011308</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>富国生物医药科技混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>87.25</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0615</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>008412</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>长盛竞争优势股票A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>89.52</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0569</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>008072</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>景顺长城创业板综指增强</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0516</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>010134</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>广发新经济混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>89.10</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>8.65</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0502</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>010732</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>广发创新医疗两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0500</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>011829</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>平安睿享成长混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>87.23</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0497</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>009557</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>申万菱信创业板量化精选股票A</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0465</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>007893</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>平安估值精选混合A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>87.19</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0385</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>011151</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>富国医疗保健行业混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>89.09</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0373</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>007481</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>华夏逸享健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>77.27</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>013441</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>西藏东财创新医疗六个月定开混合</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>81.46</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0306</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>011002</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>同泰大健康主题混合A</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>90.75</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>161038</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>富国新兴成长量化精选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0271</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>008842</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>同泰远见灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0257</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>007770</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>同泰开泰混合A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0252</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>010572</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>易方达中证万得生物科技指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>94.62</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>007894</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>平安估值精选混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>87.19</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0226</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>012087</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>博时健康生活混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>011003</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>同泰大健康主题混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>90.75</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>008413</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>长盛竞争优势股票C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>89.52</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>360010</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>光大保德信均衡精选混合</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>87.85</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0176</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>159835</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>建信中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>96.29</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2.52</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>006818</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>安信盈利驱动股票A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>83.93</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>005328</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>前海开源价值策略股票</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>010025</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>广发聚丰混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>83.22</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>014602</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>嘉实中证医疗指数A</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>014157</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>国泰君安创新医药混合</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>79.44</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>008884</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>博远博锐混合A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>86.59</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>519987</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>长信恒利优势混合</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>82.39</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>006819</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>安信盈利驱动股票C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>83.93</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>010584</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>渤海汇金新动能主题混合</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>009513</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>创金合信同顺创业板精选股票A</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>003333</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>泰信智选成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>82.33</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>014603</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>嘉实中证医疗指数C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>94.59</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>008843</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>同泰远见灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>007771</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>同泰开泰混合C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>001730</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>兴银大健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>91.54</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>009514</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>创金合信同顺创业板精选股票C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>92.82</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>410009</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>华富量子生命力混合</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>010500</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>中银创新医疗混合C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>011182</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>长盛成长龙头混合C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>87.01</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>008885</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>博远博锐混合C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>86.59</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>005247</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>国都量化精选混合</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>64.74</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>010505</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>申万菱信创业板量化精选股票C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>960015</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>汇添富医药保健混合O</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>88.92</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G116" t="n">
+        <v>0</v>
+      </c>
+      <c r="H116" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>115</v>
+      </c>
+      <c r="D2" t="n">
+        <v>59.23</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>84</v>
+      </c>
+      <c r="D3" t="n">
+        <v>87.87</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>207</v>
+      </c>
+      <c r="D4" t="n">
+        <v>220.59</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>187</v>
+      </c>
+      <c r="D5" t="n">
+        <v>184.72</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>115</v>
+      </c>
+      <c r="D6" t="n">
+        <v>97.92</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>68</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>38.48</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300759-康龙化成.xlsx
+++ b/数据整理/stocks/A股/创业板/300759-康龙化成.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -30236,7 +30237,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -30247,17 +30248,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -30267,14 +30288,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>115</v>
-      </c>
-      <c r="D2" t="n">
-        <v>59.23</v>
+          <t>003095</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>710.81</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.85</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>46.2026</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -30283,14 +30326,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>84</v>
-      </c>
-      <c r="D3" t="n">
-        <v>87.87</v>
+          <t>003096</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>384.96</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.85</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>25.0224</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -30299,14 +30364,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>207</v>
-      </c>
-      <c r="D4" t="n">
-        <v>220.59</v>
+          <t>006228</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>中欧医疗创新股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>126.89</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>10.3288</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -30315,14 +30402,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>187</v>
-      </c>
-      <c r="D5" t="n">
-        <v>184.72</v>
+          <t>001717</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银瑞信前沿医疗股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>177.75</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.88</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>6.9322</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -30331,14 +30440,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>115</v>
-      </c>
-      <c r="D6" t="n">
-        <v>97.92</v>
+          <t>010595</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>62.40</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>10.30</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>6.4272</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -30347,13 +30478,7889 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>006113</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富创新医药主题混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>98.01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.41</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>6.0962</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>512170</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华宝中证医疗ETF</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>145.66</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>98.77</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>6.0012</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>161726</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商国证生物医药指数</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>138.17</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>5.7064</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004851</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发医疗保健股票A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>100.77</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>5.1796</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>270005</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发聚丰混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>46.79</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>10.07</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>4.7118</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>006229</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中欧医疗创新股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>49.86</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>4.0586</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009714</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华安聚优精选混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>78.32</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>4.0256</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>470006</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>汇添富医药保健混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>61.01</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>88.58</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>3.6667</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005176</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>富国精准医疗灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>35.85</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.40</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>8.98</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>3.2193</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>004075</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>交银施罗德医药创新股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>42.04</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>83.55</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>2.8545</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>014046</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>交银施罗德医药创新股票C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>42.04</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>83.55</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.79</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>2.8545</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>050026</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>博时医疗保健行业混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>43.09</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>90.76</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>2.4691</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002708</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>大摩健康产业混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>20.08</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.7269</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011425</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>广发优势成长股票A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>17.32</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>9.89</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.7129</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>159992</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>银华中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>43.20</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>98.53</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.6632</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>270050</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>广发新经济混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>15.39</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>10.21</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>1.5713</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>590002</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中邮核心成长混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>44.75</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>78.15</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>1.4275</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009664</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>汇添富医疗积极成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>39.07</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>71.43</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>1.3635</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>000220</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>富国医疗保健行业混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>17.05</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>1.3146</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>501009</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>汇添富中证生物科技主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>33.48</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>1.2622</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010685</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>工银瑞信前沿医疗股票C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>29.66</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>86.88</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>1.1567</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>519714</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>交银施罗德消费新驱动股票</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>30.96</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>83.01</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>1.1238</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011826</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>汇添富健康生活一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>14.17</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>86.12</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.9763</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009163</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>广发医疗保健股票C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>18.69</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.9607</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>000945</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华夏医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>15.34</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.9173</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010110</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>广发医药健康混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>21.41</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.8521</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>501005</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>汇添富中证精准医疗主题指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>15.66</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.7861</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>004868</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>交银施罗德股息优化混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>20.53</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>83.72</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.7514</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>502056</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>广发中证医疗指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>19.01</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.7319</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>006218</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>富国生物医药科技混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>11.83</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>87.24</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.7027</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>005004</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>交银施罗德品质升级混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>18.93</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>83.54</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.6928</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010112</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>广发研究精选股票A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>20.53</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.6919</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>590001</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>中邮核心优选混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>16.41</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>86.18</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.6859</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>161616</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>融通医疗保健行业混合A/B</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>15.29</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.6743</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>159837</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>易方达中证生物科技主题ETF</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>16.78</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>99.04</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.6611</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>001766</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>上投摩根医疗健康股票</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>10.41</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>80.79</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.6590</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>012284</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>光大保德信健康优加混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>13.93</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.6575</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>012417</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>招商国证生物医药指数C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>15.59</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.6439</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>160727</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>嘉实创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>10.89</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>89.38</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.5979</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>011069</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>工银瑞信成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>16.01</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>86.74</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.5716</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>159828</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>国泰中证医疗ETF</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>14.11</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>99.45</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.5616</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>515120</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>广发中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>14.39</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>99.37</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.5583</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>159859</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>天弘国证生物医药交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>12.47</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>99.99</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.5474</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>010111</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>广发医药健康混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>13.62</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.5421</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>501010</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>汇添富中证生物科技主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>14.00</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>94.58</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.5278</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>000339</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>长城医疗保健混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>10.22</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.5038</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>010405</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>惠升医药健康6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>11.18</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>73.90</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.4953</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>233007</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>大摩卓越成长混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.4316</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>002264</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>华夏乐享健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.4314</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>871003</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>广发资管价值增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.4306</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>161122</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>易方达中证万得生物科技指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>10.41</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.4289</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>399011</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>中海医疗保健主题股票</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>10.28</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.4235</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>010314</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫内需增长混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>5.33</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.4205</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>012262</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>华宝可持续发展混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>15.65</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>79.17</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.4179</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>010393</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>工银瑞信健康生活混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>14.83</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>91.68</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.4019</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>007750</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>广发优势增长股票</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>9.88</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.4001</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>011673</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>长城医药科技六个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.3949</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>516820</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>平安中证医药及医疗器械创新交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>8.14</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>98.74</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.3655</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>008371</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>华安汇智精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>8.84</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.3633</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>519171</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>浦银安盛医疗健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>9.02</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.3455</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>009162</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>富国医药成长30股票</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.3433</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>009881</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>广发中证医疗指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.3407</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>009507</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>国金鑫意医药消费混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>8.52</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.3331</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>040016</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>华安行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>86.44</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.3315</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>010596</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>广发成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>10.30</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.3296</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>004905</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>华泰柏瑞生物医药灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.3141</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>590005</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>中邮核心主题混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.3048</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>010731</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>广发创新医疗两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>6.80</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.2958</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>011426</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>广发优势成长股票C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>9.89</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.2848</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>000878</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>中海医药健康产业精选灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.2823</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>519710</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>交银施罗德策略回报灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>77.66</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.2723</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>009508</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>国金鑫意医药消费混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>8.52</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.2650</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>013037</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>长城大健康混合A</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>68.55</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.2630</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>040020</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>华安升级主题混合</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>87.45</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.2610</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>240020</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>华宝医药生物优选混合</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>90.82</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.2505</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>160143</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>南方创业板2年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>8.64</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>86.75</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.2445</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>013882</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>交银施罗德品质升级混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>6.53</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>83.54</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.2390</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>011827</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>汇添富健康生活一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>86.12</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.2384</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>003291</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>信达澳银健康中国灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.2338</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>501006</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>汇添富中证精准医疗主题指数(LOF)C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>94.55</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.2209</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>009989</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>华宝研究精选混合</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>9.19</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>79.21</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.2178</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>005805</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>华泰柏瑞医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.2177</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>005689</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>中银医疗保健灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>84.46</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.1998</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>002919</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>东吴智慧医疗量化策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>4.63</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.1963</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>009623</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>长城创新驱动混合</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>5.43</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>91.49</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.1960</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>000946</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>华夏医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.1932</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>008359</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>华安医疗创新混合</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>8.78</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.1923</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>012086</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>博时健康生活混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.1916</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>011308</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>富国生物医药科技混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>87.24</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.1901</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>004683</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>建信高端医疗股票</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>89.39</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.1849</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>011598</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>信达澳银医药健康混合</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.1846</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>008786</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>长城健康生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>6.39</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>81.54</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.1808</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>013183</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>浦银安盛医疗健康灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.1785</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>010222</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫民丰盈和一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>10.66</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>24.59</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.1780</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>011151</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>富国医疗保健行业混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.1704</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>014030</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>大摩健康产业混合C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>8.60</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.1694</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>000523</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>国投瑞银医疗保健行业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>87.83</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.1665</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>011082</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>国投瑞银医疗保健混合C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>87.83</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>7.78</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.1665</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>000974</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>安信消费医药主题股票</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>89.95</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.1616</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>008290</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>华安现代生活混合</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.1592</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>009468</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>博时健康成长主题双周定期可赎回混合A</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>6.25</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.1588</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>012263</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>华宝可持续发展混合C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>79.17</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.1573</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>009665</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>汇添富医疗积极成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>71.43</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.1522</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>161035</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>富国中证医药主题指数增强型（LOF）</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.1490</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>002300</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>长盛医疗行业量化配置股票</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>92.29</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.1487</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>159839</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>汇添富国证生物医药ETF</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>99.47</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.1486</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>008734</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>交银施罗德科锐科技创新混合</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>80.66</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.1345</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>009898</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>民生加银医药健康股票</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.1297</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>159847</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>易方达中证医疗交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>99.02</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.1223</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>010113</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>广发研究精选股票C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.1206</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>006101</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>平安优势产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.1182</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>003032</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>平安医疗健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>92.39</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>6.68</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.1082</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>011948</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>东吴智慧医疗量化策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.1077</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>007718</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>中银创新医疗混合A</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.1071</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>516080</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>易方达中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>98.76</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.1042</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>517380</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>天弘恒生沪深港创新药精选50交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>99.26</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0954</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>011181</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>长盛成长龙头混合A</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>90.80</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0952</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>000879</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>中海医药健康产业精选灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0939</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>015208</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>信达澳银健康中国灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>0.0896</t>
+        </is>
+      </c>
+      <c r="H125" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>165519</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>信诚中证800医药指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>0.0815</t>
+        </is>
+      </c>
+      <c r="H126" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>005112</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>银华中证全指医药卫生指数增强</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>0.0762</t>
+        </is>
+      </c>
+      <c r="H127" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>002216</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>易方达量化策略精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>0.0760</t>
+        </is>
+      </c>
+      <c r="H128" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>013940</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>东吴医疗服务股票A</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>0.0742</t>
+        </is>
+      </c>
+      <c r="H129" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="2" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>010394</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>工银瑞信健康生活混合C</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>91.68</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>0.0732</t>
+        </is>
+      </c>
+      <c r="H130" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="2" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>013949</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>交银施罗德科锐科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>80.66</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>0.0718</t>
+        </is>
+      </c>
+      <c r="H131" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="2" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>010134</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>广发新经济混合C</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>10.21</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>0.0715</t>
+        </is>
+      </c>
+      <c r="H132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="2" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>010732</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>广发创新医疗两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>0.0679</t>
+        </is>
+      </c>
+      <c r="H133" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="2" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>008923</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>建信医疗健康行业股票A</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>87.89</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>0.0678</t>
+        </is>
+      </c>
+      <c r="H134" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="2" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>011895</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>博时医疗保健行业混合C</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>90.76</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>0.0676</t>
+        </is>
+      </c>
+      <c r="H135" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="2" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>512120</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>华安中证细分医药ETF</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>98.68</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>0.0650</t>
+        </is>
+      </c>
+      <c r="H136" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="2" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>011070</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>工银瑞信成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>86.74</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>0.0643</t>
+        </is>
+      </c>
+      <c r="H137" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="2" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>006796</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>富国消费升级混合</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>0.0607</t>
+        </is>
+      </c>
+      <c r="H138" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="2" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>006100</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>平安优势产业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>0.0594</t>
+        </is>
+      </c>
+      <c r="H139" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="2" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>013483</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>华安医疗创新混合C</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>92.79</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>0.0563</t>
+        </is>
+      </c>
+      <c r="H140" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="2" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>014867</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫优悦安和混合C</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>0.0557</t>
+        </is>
+      </c>
+      <c r="H141" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="2" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>009893</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫优悦安和混合</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>0.0533</t>
+        </is>
+      </c>
+      <c r="H142" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="2" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>009275</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>融通医疗保健行业混合C</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>0.0494</t>
+        </is>
+      </c>
+      <c r="H143" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="2" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>516500</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>华夏中证生物科技主题ETF</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>98.59</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>0.0436</t>
+        </is>
+      </c>
+      <c r="H144" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="2" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>159849</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>招商中证生物科技主题ETF</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>99.39</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>0.0431</t>
+        </is>
+      </c>
+      <c r="H145" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="2" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>007481</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>华夏逸享健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>75.65</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>0.0422</t>
+        </is>
+      </c>
+      <c r="H146" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="2" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>003284</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>中邮医药健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>0.0401</t>
+        </is>
+      </c>
+      <c r="H147" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="2" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>006881</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>华宝大健康混合</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>90.78</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>0.0401</t>
+        </is>
+      </c>
+      <c r="H148" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="2" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>005520</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>国投瑞银创新医疗灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>87.75</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>0.0398</t>
+        </is>
+      </c>
+      <c r="H149" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="2" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>516060</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>工银瑞信中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>98.26</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>0.0387</t>
+        </is>
+      </c>
+      <c r="H150" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="2" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>012087</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>博时健康生活混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>91.77</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>0.0368</t>
+        </is>
+      </c>
+      <c r="H151" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="2" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>010572</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>易方达中证万得生物科技指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>0.0358</t>
+        </is>
+      </c>
+      <c r="H152" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="2" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>011674</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>长城医药科技六个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>0.0327</t>
+        </is>
+      </c>
+      <c r="H153" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="2" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>002217</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>易方达量化策略精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>93.87</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H154" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="2" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>180028</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>银华永祥灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>77.89</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H155" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="2" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>159858</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>南方中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>99.60</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>0.0292</t>
+        </is>
+      </c>
+      <c r="H156" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="2" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>516930</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>民生加银中证生物科技主题交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>97.34</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H157" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="2" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>009469</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>博时健康成长主题双周定期可赎回混合C</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G158" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H158" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="2" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>011002</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>同泰大健康主题混合A</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G159" t="inlineStr">
+        <is>
+          <t>0.0266</t>
+        </is>
+      </c>
+      <c r="H159" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" s="2" t="n">
+        <v>158</v>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>003513</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>中邮消费升级灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H160" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" s="2" t="n">
+        <v>159</v>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>007277</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>恒生前海消费升级混合</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H161" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="2" t="n">
+        <v>160</v>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>159835</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>建信中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>98.57</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H162" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="2" t="n">
+        <v>161</v>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>010938</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫招惠一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>30.25</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>0.0234</t>
+        </is>
+      </c>
+      <c r="H163" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="n">
+        <v>162</v>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>013941</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>东吴医疗服务股票C</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>3.71</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H164" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="n">
+        <v>163</v>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>014603</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>嘉实中证医疗指数C</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H165" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="n">
+        <v>164</v>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>360010</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>光大保德信均衡精选混合</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>89.47</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H166" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="n">
+        <v>165</v>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>011453</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>华泰柏瑞医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>93.81</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H167" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>011003</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>同泰大健康主题混合C</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>6.19</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H168" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="2" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>007770</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>同泰开泰混合A</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H169" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="2" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>860008</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>光大阳光生活 18 个月持有期混合型集合资产管理计划A</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>85.11</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>0.0169</t>
+        </is>
+      </c>
+      <c r="H170" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="2" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>007861</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>金元顺安医疗健康混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H171" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="2" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>010025</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>广发聚丰混合C</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>10.07</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H172" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="2" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>008924</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>建信医疗健康行业股票C</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>87.89</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H173" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="2" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>012598</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>华安国证生物医药指数A</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G174" t="inlineStr">
+        <is>
+          <t>0.0149</t>
+        </is>
+      </c>
+      <c r="H174" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="2" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>010939</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫招惠一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>30.25</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G175" t="inlineStr">
+        <is>
+          <t>0.0147</t>
+        </is>
+      </c>
+      <c r="H175" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="2" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>010031</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>华泰柏瑞生物医药灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>5.68</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H176" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="2" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>013038</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>长城大健康混合C</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>68.55</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H177" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="2" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>008093</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>同泰慧选混合A</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>90.40</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H178" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="2" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>014157</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>国泰君安创新医药混合</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>78.69</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>0.0110</t>
+        </is>
+      </c>
+      <c r="H179" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="2" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>006240</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>中融医疗健康精选混合A</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>84.23</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H180" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="2" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>519987</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>长信恒利优势混合</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>89.69</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H181" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="2" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>006241</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>中融医疗健康精选混合C</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>84.23</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H182" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="2" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>010159</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>中银医疗保健灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>84.46</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H183" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="2" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>006818</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>安信盈利驱动股票A</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>87.39</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H184" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="2" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>011567</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>富国消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H185" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="2" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>003333</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>泰信智选成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H186" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="2" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>014820</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>华安创新医药锐选量化股票A</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>90.25</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H187" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="2" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>002388</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>天弘裕利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>23.16</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H188" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="2" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>012599</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>华安国证生物医药指数C</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H189" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="2" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>007771</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>同泰开泰混合C</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H190" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="2" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>014602</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>嘉实中证医疗指数A</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H191" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="2" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>013873</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>平安中证医药及医疗器械创新指数A</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H192" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="2" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>860060</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>光大阳光生活 18 个月持有期混合型集合资产管理计划B</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>85.11</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H193" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="2" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>005997</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>天弘裕利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>23.16</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H194" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="2" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>001563</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>华富健康文娱灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H195" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="2" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>006819</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>安信盈利驱动股票C</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>87.39</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H196" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="2" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>010500</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>中银创新医疗混合C</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>90.00</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H197" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="2" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>013874</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>平安中证医药及医疗器械创新指数C</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>93.31</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>0.0038</t>
+        </is>
+      </c>
+      <c r="H198" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="2" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>008094</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>同泰慧选混合C</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>90.40</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H199" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="2" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>007862</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>金元顺安医疗健康混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H200" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="2" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>011182</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>长盛成长龙头混合C</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>90.80</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>0.0022</t>
+        </is>
+      </c>
+      <c r="H201" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="2" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>013080</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>信诚中证800医药指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H202" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="2" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>014932</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>上投摩根医疗健康股票C</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>80.79</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>6.33</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H203" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="2" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>860061</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>光大阳光生活 18 个月持有期混合型集合资产管理计划C</t>
+        </is>
+      </c>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>85.11</t>
+        </is>
+      </c>
+      <c r="F204" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H204" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="2" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>015065</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>华夏乐享健康灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>6.18</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H205" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="2" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>014758</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>民生加银医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H206" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="2" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>960015</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>汇添富医药保健混合O</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>88.58</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G207" t="n">
+        <v>0</v>
+      </c>
+      <c r="H207" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="2" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>015066</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>华夏逸享健康灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>75.65</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G208" t="n">
+        <v>0</v>
+      </c>
+      <c r="H208" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="2" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>014869</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫内需增长混合C</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="G209" t="n">
+        <v>0</v>
+      </c>
+      <c r="H209" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="2" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>014976</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>华安升级主题混合C</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>87.45</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G210" t="n">
+        <v>0</v>
+      </c>
+      <c r="H210" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>209</v>
+      </c>
+      <c r="D2" t="n">
+        <v>196.24</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>115</v>
+      </c>
+      <c r="D3" t="n">
+        <v>59.23</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>84</v>
+      </c>
+      <c r="D4" t="n">
+        <v>87.87</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>207</v>
+      </c>
+      <c r="D5" t="n">
+        <v>220.59</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>187</v>
+      </c>
+      <c r="D6" t="n">
+        <v>184.72</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>115</v>
+      </c>
+      <c r="D7" t="n">
+        <v>97.92</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>68</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>38.48</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300759-康龙化成.xlsx
+++ b/数据整理/stocks/A股/创业板/300759-康龙化成.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>209</v>
+        <v>102</v>
       </c>
       <c r="D2" t="n">
-        <v>196.24</v>
+        <v>75.63</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>115</v>
+        <v>209</v>
       </c>
       <c r="D3" t="n">
-        <v>59.23</v>
+        <v>196.24</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>84</v>
+        <v>115</v>
       </c>
       <c r="D4" t="n">
-        <v>87.87</v>
+        <v>59.23</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>207</v>
+        <v>84</v>
       </c>
       <c r="D5" t="n">
-        <v>220.59</v>
+        <v>87.87</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="D6" t="n">
-        <v>184.72</v>
+        <v>220.59</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>115</v>
+        <v>187</v>
       </c>
       <c r="D7" t="n">
-        <v>97.92</v>
+        <v>184.72</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>115</v>
+      </c>
+      <c r="D8" t="n">
+        <v>97.92</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>68</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>38.48</v>
       </c>
     </row>
@@ -600,6 +617,3936 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H103"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>003096</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>中欧医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>334.31</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.40</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>14.3085</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>003095</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中欧医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>279.02</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.40</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>11.9421</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>512170</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华宝中证医疗ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>157.90</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.90</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.6738</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004851</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发医疗保健股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>81.29</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>4.1539</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010595</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>48.31</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>3.7923</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006113</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富创新医药主题混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>85.14</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>75.99</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>3.7632</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>161726</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>招商国证生物医药指数A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>117.97</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>3.6807</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006228</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中欧医疗创新股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>66.51</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.94</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>3.4585</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>270005</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发聚丰混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>38.23</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>3.1234</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006229</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中欧医疗创新股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>51.55</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>88.94</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>2.6806</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005176</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国精准医疗灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>33.00</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>2.2506</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002708</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>大摩健康产业混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>21.51</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.2949</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>159992</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>银华中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>43.46</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>98.40</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.1952</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>050026</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>博时医疗保健行业混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>32.65</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.15</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.9762</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000913</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>农银医疗保健主题股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>18.68</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.9097</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009163</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发医疗保健股票C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>17.40</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.8891</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010110</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>广发医药健康混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>17.42</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.6951</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>000711</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>嘉实医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>14.17</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.6589</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>000220</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富国医疗保健行业混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>12.29</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>86.01</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.5481</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>012417</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>招商国证生物医药指数C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>16.74</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.84</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.5223</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010111</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>广发医药健康混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>12.39</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.4944</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>501009</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>汇添富中证生物科技主题指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>17.64</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.4922</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>159828</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>国泰中证医疗ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>17.27</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>99.54</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.4818</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>159859</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>天弘国证生物医药ETF</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>14.46</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>99.79</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.4743</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>515120</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>广发中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>16.65</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>99.40</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.4612</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>159837</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>易方达中证生物科技主题ETF</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>16.12</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>99.10</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.4514</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>008293</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>农银汇理创新医疗混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>8.39</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.85</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.4069</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>006218</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>富国生物医药科技混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>7.10</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>89.32</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.3827</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011201</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>财通优势行业轮动混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>8.53</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.3821</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>501010</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>汇添富中证生物科技主题指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>13.43</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.3747</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011826</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>汇添富健康生活一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>9.05</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>85.74</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.3520</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>009881</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>广发中证医疗指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>10.51</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>95.73</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2932</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>160727</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>嘉实创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>9.53</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>74.86</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2830</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011212</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>富国稳健策略6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>10.39</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>78.91</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2826</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>516820</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>平安中证医药及医疗器械创新ETF</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>8.42</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>98.24</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2720</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>502056</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>广发中证医疗指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>9.62</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>95.73</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2684</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>000945</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华夏医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>10.20</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>84.42</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2683</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>161122</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>易方达中证万得生物科技指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>8.94</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2646</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>014030</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>大摩健康产业混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.2571</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010393</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>工银健康生活混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>10.07</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>88.64</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.2387</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>010596</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>广发成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>90.12</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.2088</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>501085</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>财通科创主题灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>86.93</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.2067</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>009162</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>富国医药成长30股票</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>87.16</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1800</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>000523</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>国投瑞银医疗保健混合A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1474</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>014347</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>富国趋势优先混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>74.81</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1424</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>460007</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业领先混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1379</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>010731</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>广发创新医疗两年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1373</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>159839</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>汇添富国证生物医药ETF</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>99.64</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1301</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>011827</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>汇添富健康生活一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>85.74</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1105</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>011078</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>诺德品质消费6个月持有期混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>93.34</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1050</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>159847</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>易方达中证医疗ETF</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>98.97</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0924</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>014867</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫优悦安和混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>93.41</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0919</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>011308</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>富国生物医药科技混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>89.32</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0819</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>000946</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>华夏医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>84.42</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0731</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>516080</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>易方达中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.47</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>98.96</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0682</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>009893</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫优悦安和混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>93.41</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0606</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>006796</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>富国消费升级混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>86.84</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0564</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>008185</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>诺安研究优选混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0556</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>014718</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>富国天旭均衡混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>76.61</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0552</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>517380</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>天弘恒生沪深港创新药精选50ETF</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>99.42</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0550</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>011111</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业严选混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0542</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>010394</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>工银健康生活混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>88.64</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0540</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>001398</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>华泰柏瑞健康生活灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0526</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>560900</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>上投摩根中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.56</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0494</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>010732</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>广发创新医疗两年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0414</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>014603</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>嘉实中证医疗指数C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0411</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>011151</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>富国医疗保健行业混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>86.01</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0317</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>005520</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>国投瑞银创新医疗混合</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>93.90</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0317</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>010572</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>易方达中证万得生物科技指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>159849</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>招商中证生物科技主题ETF</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>99.25</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>516060</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>工银新药ETF</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>98.53</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>011213</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>富国稳健策略6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>78.91</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>501032</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>财通福盛多策略混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0265</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>516500</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>华夏中证生物科技主题ETF</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>98.95</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>159858</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>南方中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>99.70</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>360010</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>光大保德信均衡精选混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>87.47</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>159835</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>建信中证创新药产业ETF</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>98.09</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>516930</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>民生加银中证生物科技主题ETF</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>97.99</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>011202</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>财通优势行业轮动混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>014348</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>富国趋势优先混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>74.81</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0135</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>011003</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>同泰大健康主题混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>010025</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>广发聚丰混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>8.17</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>161038</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>富国新兴成长量化精选混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0113</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>560600</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>方正富邦中证医药及医疗器械创新ETF</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>011082</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>国投瑞银医疗保健混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>7.56</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>012599</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>华安国证生物医药指数C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>011112</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业严选混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>011567</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>富国消费升级混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>86.84</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>012598</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>华安国证生物医药指数A</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>011002</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>同泰大健康主题混合A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>009514</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>创金合信同顺创业板精选股票C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>014628</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>财通福盛多策略混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>014602</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>嘉实中证医疗指数A</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>011895</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>博时医疗保健行业混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>88.15</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>012901</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>招商创业板指数增强C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>014497</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>诺安研究优选混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0033</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>014719</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>富国天旭均衡混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>76.61</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>009513</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>创金合信同顺创业板精选股票A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>92.10</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>014820</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>华安创新医药锐选量化股票A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>012900</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>招商创业板指数增强A</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>014821</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>华安创新医药锐选量化股票C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>91.42</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>014171</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>富国新兴成长量化精选混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>91.98</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G103" t="n">
+        <v>0</v>
+      </c>
+      <c r="H103" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8589,7 +12536,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -13013,7 +16960,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -16261,7 +20208,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -24179,7 +28126,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -31335,7 +35282,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -35733,7 +39680,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
